--- a/20170223_20170316/team2/Phase2/デザイン検討中.xlsx
+++ b/20170223_20170316/team2/Phase2/デザイン検討中.xlsx
@@ -1770,169 +1770,153 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>76</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>77</xdr:col>
+      <xdr:col>78</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="グループ化 5"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13573125" y="2117612"/>
-          <a:ext cx="178594" cy="5612946"/>
+          <a:off x="13916025" y="257175"/>
+          <a:ext cx="200025" cy="7791450"/>
+          <a:chOff x="13916025" y="257175"/>
+          <a:chExt cx="200025" cy="7791450"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>76</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>77</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>93549</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="二等辺三角形 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13573125" y="2117612"/>
-          <a:ext cx="178594" cy="93549"/>
-        </a:xfrm>
-        <a:prstGeom prst="triangle">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>76</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>93549</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>77</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="79" name="二等辺三角形 78"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="13573125" y="7637009"/>
-          <a:ext cx="178594" cy="93549"/>
-        </a:xfrm>
-        <a:prstGeom prst="triangle">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13935075" y="257175"/>
+            <a:ext cx="180975" cy="7791450"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="二等辺三角形 8"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13925550" y="266700"/>
+            <a:ext cx="180975" cy="93549"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="79" name="二等辺三角形 78"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="13916025" y="7951674"/>
+            <a:ext cx="180975" cy="96951"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -2676,46 +2660,279 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>143467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>163635</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171450" y="1153117"/>
+          <a:ext cx="8686800" cy="972668"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>NHK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>が放送しているテレビ番組の番組表を、表示することができます。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>確認したい日付を選択してください。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>48</xdr:col>
+      <xdr:colOff>171275</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>143468</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171450" y="247650"/>
+          <a:ext cx="8686625" cy="905468"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="33CC33"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>NHK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>番組表</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>171275</xdr:colOff>
       <xdr:row>41</xdr:row>
+      <xdr:rowOff>189480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171450" y="247651"/>
+          <a:ext cx="8686625" cy="7809479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>189480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>189480</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="43" name="グループ化 42"/>
+        <xdr:cNvPr id="18" name="グループ化 17"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="171450" y="247650"/>
-          <a:ext cx="8686800" cy="7809480"/>
-          <a:chOff x="180975" y="248670"/>
-          <a:chExt cx="13935356" cy="7809480"/>
+          <a:off x="361950" y="2151630"/>
+          <a:ext cx="8143875" cy="5715000"/>
+          <a:chOff x="406289" y="2152650"/>
+          <a:chExt cx="6810565" cy="5662613"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+          <xdr:cNvPr id="19" name="正方形/長方形 18"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="180975" y="1154137"/>
-            <a:ext cx="13935356" cy="972668"/>
+            <a:off x="406289" y="2152650"/>
+            <a:ext cx="1700243" cy="5662612"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
           <a:solidFill>
-            <a:sysClr val="window" lastClr="FFFFFF"/>
+            <a:schemeClr val="bg1"/>
           </a:solidFill>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
           </a:ln>
         </xdr:spPr>
         <xdr:style>
@@ -2735,68 +2952,43 @@
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>NHK</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>が放送しているテレビ番組の番組表を、表示することができます。</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>確認したい日付を選択してください。</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+          <xdr:cNvPr id="20" name="正方形/長方形 19"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="180975" y="248670"/>
-            <a:ext cx="13935075" cy="905468"/>
+            <a:off x="2108899" y="2152650"/>
+            <a:ext cx="1700243" cy="5662613"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
           <a:solidFill>
-            <a:srgbClr val="33CC33"/>
+            <a:schemeClr val="bg1"/>
           </a:solidFill>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
           </a:ln>
         </xdr:spPr>
         <xdr:style>
@@ -2819,705 +3011,377 @@
           <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr algn="ctr"/>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3811572" y="2152650"/>
+            <a:ext cx="1700243" cy="5662612"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="正方形/長方形 21"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5516611" y="2152650"/>
+            <a:ext cx="1700243" cy="5662612"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>NHK</a:t>
+              <a:t>0</a:t>
             </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>番組表</a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+          <xdr:cNvPr id="23" name="正方形/長方形 22"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="180975" y="248671"/>
-            <a:ext cx="13935075" cy="7809479"/>
+            <a:off x="406289" y="2152650"/>
+            <a:ext cx="1700243" cy="292894"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="9BE59B"/>
+          </a:solidFill>
+          <a:ln>
             <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
           </a:ln>
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="2">
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
           </a:lnRef>
           <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
+            <a:schemeClr val="accent1"/>
           </a:fillRef>
           <a:effectRef idx="0">
             <a:schemeClr val="accent1"/>
           </a:effectRef>
           <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
+            <a:schemeClr val="lt1"/>
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ＮＨＫ総合１</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="42" name="グループ化 41"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
           <a:xfrm>
-            <a:off x="361950" y="2152650"/>
-            <a:ext cx="13573125" cy="5715000"/>
-            <a:chOff x="361950" y="2152650"/>
-            <a:chExt cx="13573125" cy="5715000"/>
+            <a:off x="2108899" y="2152650"/>
+            <a:ext cx="1700243" cy="292894"/>
           </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="18" name="グループ化 17"/>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="361950" y="2152650"/>
-              <a:ext cx="13392150" cy="5715000"/>
-              <a:chOff x="361950" y="2152650"/>
-              <a:chExt cx="6810562" cy="5662613"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="19" name="正方形/長方形 18"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="361950" y="2152650"/>
-                <a:ext cx="1700243" cy="5662612"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="9BE59B"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr marL="0" indent="0" algn="ctr"/>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
-                  <a:solidFill>
-                    <a:schemeClr val="bg1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="20" name="正方形/長方形 19"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="2064560" y="2152650"/>
-                <a:ext cx="1700243" cy="5662613"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="正方形/長方形 24"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3811571" y="2152650"/>
+            <a:ext cx="1700243" cy="292894"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="9BE59B"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr marL="0" indent="0" algn="ctr"/>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
-                  <a:solidFill>
-                    <a:schemeClr val="bg1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="21" name="正方形/長方形 20"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="3767232" y="2152650"/>
-                <a:ext cx="1700243" cy="5662612"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="正方形/長方形 25"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5516609" y="2152650"/>
+            <a:ext cx="1700243" cy="292894"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="9BE59B"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr marL="0" indent="0" algn="ctr"/>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
-                  <a:solidFill>
-                    <a:schemeClr val="bg1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="22" name="正方形/長方形 21"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="5472269" y="2152650"/>
-                <a:ext cx="1700243" cy="5662612"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr marL="0" indent="0" algn="ctr"/>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:rPr>
-                  <a:t>0</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
-                  <a:solidFill>
-                    <a:schemeClr val="bg1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="23" name="正方形/長方形 22"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="361950" y="2152650"/>
-                <a:ext cx="1700243" cy="292894"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:srgbClr val="9BE59B"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr marL="0" indent="0" algn="ctr"/>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:rPr>
-                  <a:t>ＮＨＫ総合１</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="24" name="正方形/長方形 23"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="2064560" y="2152650"/>
-                <a:ext cx="1700243" cy="292894"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:srgbClr val="9BE59B"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr marL="0" indent="0" algn="ctr"/>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
-                  <a:solidFill>
-                    <a:schemeClr val="bg1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="25" name="正方形/長方形 24"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="3767232" y="2152650"/>
-                <a:ext cx="1700243" cy="292894"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:srgbClr val="9BE59B"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr marL="0" indent="0" algn="ctr"/>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
-                  <a:solidFill>
-                    <a:schemeClr val="bg1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="26" name="正方形/長方形 25"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="5472269" y="2152650"/>
-                <a:ext cx="1700243" cy="292894"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:srgbClr val="9BE59B"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr marL="0" indent="0" algn="ctr"/>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
-                  <a:solidFill>
-                    <a:schemeClr val="bg1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </xdr:grpSp>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="40" name="グループ化 39"/>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="13754100" y="2152650"/>
-              <a:ext cx="180975" cy="5715000"/>
-              <a:chOff x="13573125" y="2117612"/>
-              <a:chExt cx="178594" cy="5612946"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="27" name="正方形/長方形 26"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="13573125" y="2117612"/>
-                <a:ext cx="178594" cy="5612946"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="12700"/>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l"/>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="28" name="二等辺三角形 27"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="13573125" y="2117612"/>
-                <a:ext cx="178594" cy="93549"/>
-              </a:xfrm>
-              <a:prstGeom prst="triangle">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l"/>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="29" name="二等辺三角形 28"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm flipV="1">
-                <a:off x="13573125" y="7637009"/>
-                <a:ext cx="178594" cy="93549"/>
-              </a:xfrm>
-              <a:prstGeom prst="triangle">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l"/>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </xdr:grpSp>
-      </xdr:grpSp>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -6024,6 +5888,158 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="60" name="グループ化 59"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8686800" y="247650"/>
+          <a:ext cx="200025" cy="7810500"/>
+          <a:chOff x="13916025" y="238125"/>
+          <a:chExt cx="200025" cy="7810500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="61" name="正方形/長方形 60"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13935075" y="238125"/>
+            <a:ext cx="180975" cy="7810500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="62" name="二等辺三角形 61"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13925550" y="266700"/>
+            <a:ext cx="180975" cy="93549"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="63" name="二等辺三角形 62"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="13916025" y="7951674"/>
+            <a:ext cx="180975" cy="96951"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
